--- a/Dataviz.xlsx
+++ b/Dataviz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Desktop\Dataviz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{68163216-1713-4ABA-A63E-016345531111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F5BC4BAB-B150-46E3-B6D1-A5CCE1E1ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{83E903EC-CCFD-4C5A-94CF-E263097C58BE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="120" uniqueCount="91">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="126" uniqueCount="95">
   <si>
     <t>ANNÉE</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Cartes/2025.svg</t>
+  </si>
+  <si>
+    <t>Kai Havertz</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Cartes/2021.svg</t>
   </si>
 </sst>
 </file>
@@ -733,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F868A2-9C68-476F-8649-2325EF109CFE}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +757,7 @@
     <col min="2" max="2" width="23.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="25.109375" customWidth="1"/>
@@ -1042,22 +1054,22 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="d">
-        <v>2021-08-05</v>
+        <v>2021-09-04</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5">
-        <v>117500000</v>
+        <v>100000000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>77</v>
@@ -1065,107 +1077,137 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="d">
-        <v>2023-01-31</v>
+        <v>2021-08-05</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>121000000</v>
+        <v>117500000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="d">
-        <v>2023-06-07</v>
+        <v>2023-01-31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G14" s="5">
-        <v>127000000</v>
+        <v>121000000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="d">
-        <v>2025-01-31</v>
+        <v>2023-06-07</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5">
-        <v>77000000</v>
+        <v>127000000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="d">
+        <v>2025-01-31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5">
+        <v>77000000</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="3" t="d">
+      <c r="D17" s="3" t="d">
         <v>2025-09-01</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <v>145000000</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
